--- a/Pollution/data/traffic_KP.xlsx
+++ b/Pollution/data/traffic_KP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowcenterat-my.sharepoint.com/personal/vpetric_know-center_at/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowcenterat-my.sharepoint.com/personal/vpetric_know-center_at/Documents/Desktop/Projekti/Pollution/graz_air_pollution-master/graz_air_pollution-master/notebooks/kristina_nbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{09633B64-39BC-4C55-9379-059652609CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E799B8B-D670-47BF-8686-125587B940EC}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{09633B64-39BC-4C55-9379-059652609CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E500D64-5FBF-47AA-90C9-D1836E2BF5C5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="traffic_data_containsNA_KP" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>8010_208</t>
   </si>
@@ -125,6 +136,9 @@
     <t>Klosterwiesgasse</t>
   </si>
   <si>
+    <t>OST</t>
+  </si>
+  <si>
     <t>C.v. Hötzendorf-Straße</t>
   </si>
   <si>
@@ -138,6 +152,9 @@
   </si>
   <si>
     <t>Kalvariengürtel</t>
+  </si>
+  <si>
+    <t>NORD</t>
   </si>
   <si>
     <t>Bahnhofgürtel</t>
@@ -159,6 +176,9 @@
   </si>
   <si>
     <t>südl. d. Wetzelsdorfer Straße</t>
+  </si>
+  <si>
+    <t>DONBOSCO</t>
   </si>
   <si>
     <t>Rösselmühlgasse</t>
@@ -75048,7 +75068,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75075,12 +75095,12 @@
         <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -75106,12 +75126,6 @@
       <c r="F2" s="9">
         <v>47.087794000000002</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1120.2942370000001</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -75132,12 +75146,6 @@
       <c r="F3" s="8">
         <v>47.077866</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2689.6802210000001</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -75158,12 +75166,6 @@
       <c r="F4" s="8">
         <v>47.076678999999999</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2017.9953620000001</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -75184,11 +75186,8 @@
       <c r="F5" s="8">
         <v>47.065714</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1828.9924860000001</v>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -75199,10 +75198,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8">
         <v>15.448639999999999</v>
@@ -75210,25 +75209,19 @@
       <c r="F6" s="8">
         <v>47.054039000000003</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1497.2886450000001</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8">
         <v>15.414365999999999</v>
@@ -75236,11 +75229,8 @@
       <c r="F7" s="8">
         <v>47.084800999999999</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1065.426739</v>
+      <c r="G7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -75251,22 +75241,16 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8">
         <v>15.418547</v>
       </c>
       <c r="F8" s="8">
         <v>47.073193000000003</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1197.961393</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -75277,10 +75261,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="8">
         <v>15.429734</v>
@@ -75288,25 +75272,19 @@
       <c r="F9" s="8">
         <v>47.045648</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="8">
-        <v>507.9675469</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8">
         <v>15.418848000000001</v>
@@ -75314,11 +75292,8 @@
       <c r="F10" s="8">
         <v>47.058658999999999</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="8">
-        <v>381.00138989999999</v>
+      <c r="G10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -75329,10 +75304,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8">
         <v>15.431343</v>
@@ -75340,12 +75315,7 @@
       <c r="F11" s="8">
         <v>47.066870000000002</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1682.3302020000001</v>
-      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -75355,10 +75325,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8">
         <v>15.431727</v>
@@ -75366,12 +75336,7 @@
       <c r="F12" s="8">
         <v>47.057316</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1169.35142</v>
-      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -75381,10 +75346,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E13" s="8">
         <v>15.458994000000001</v>
@@ -75392,12 +75357,7 @@
       <c r="F13" s="8">
         <v>47.040196999999999</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1976.680683</v>
-      </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -75407,10 +75367,10 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8">
         <v>15.46463</v>
@@ -75418,12 +75378,7 @@
       <c r="F14" s="8">
         <v>47.042901000000001</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1855.0447830000001</v>
-      </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -75433,10 +75388,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="8">
         <v>15.423190999999999</v>
@@ -75444,12 +75399,7 @@
       <c r="F15" s="8">
         <v>47.094507</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="8">
-        <v>612.8421002</v>
-      </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -75459,10 +75409,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" s="8">
         <v>15.401113</v>
@@ -75470,14 +75420,9 @@
       <c r="F16" s="8">
         <v>47.106281000000003</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1698.4701480000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -75485,10 +75430,10 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E17" s="8">
         <v>15.414218999999999</v>
@@ -75496,16 +75441,11 @@
       <c r="F17" s="8">
         <v>47.043458999999999</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1363.1624039999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -75513,14 +75453,13 @@
       <c r="E18" s="10">
         <v>15.415122</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="10">
         <v>47.094369999999998</v>
       </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -75528,14 +75467,13 @@
       <c r="E19" s="10">
         <v>15.466634000000001</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="10">
         <v>47.059530000000002</v>
       </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -75543,14 +75481,13 @@
       <c r="E20" s="10">
         <v>15.403727999999999</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="10">
         <v>47.069505999999997</v>
       </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -75558,14 +75495,13 @@
       <c r="E21" s="10">
         <v>15.416539</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="10">
         <v>47.055616999999998</v>
       </c>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -75573,10 +75509,9 @@
       <c r="E22" s="10">
         <v>15.433078</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="10">
         <v>47.041691999999998</v>
       </c>
-      <c r="G22" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
